--- a/params.xlsx
+++ b/params.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noaha\Desktop\blimp_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noaha\Documents\GitHub\blimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8CE86F-C6A3-45A2-AB38-E88CE406464B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AEBE40-9329-474A-A0DA-4C67C7A5E2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1836" windowWidth="16500" windowHeight="9492" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchors" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Thresholds" sheetId="3" r:id="rId3"/>
-    <sheet name="Rename_remove" sheetId="4" r:id="rId4"/>
-    <sheet name="Defaults" sheetId="5" r:id="rId5"/>
+    <sheet name="Rename_by_UID" sheetId="4" r:id="rId4"/>
+    <sheet name="Names_to_change" sheetId="5" r:id="rId5"/>
+    <sheet name="Remove" sheetId="7" r:id="rId6"/>
+    <sheet name="Metadata" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Anchor</t>
   </si>
@@ -76,9 +78,6 @@
     <t>New_name</t>
   </si>
   <si>
-    <t>Remove</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -143,6 +142,24 @@
   </si>
   <si>
     <t>transducer_pressure_thresh</t>
+  </si>
+  <si>
+    <t>old_name</t>
+  </si>
+  <si>
+    <t>new_name</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Ex: 20200105 NTA determined that a leak on the CO block led to erroneous D47 values</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Mineralogy</t>
   </si>
 </sst>
 </file>
@@ -508,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851CBD33-92C1-489B-80B7-086839040FD4}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -537,7 +554,7 @@
         <v>0.20519999999999999</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -548,7 +565,7 @@
         <v>0.20849999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -559,7 +576,7 @@
         <v>0.61319999999999997</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -570,7 +587,7 @@
         <v>0.45050000000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -581,7 +598,7 @@
         <v>0.64090000000000003</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -592,7 +609,7 @@
         <v>0.51349999999999996</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -616,46 +633,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>1.00871</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>1.00926</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>1.009091</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -677,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313594B5-B9A1-4667-8855-C8BB6D6B9DD7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -696,77 +713,77 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>0.10299999999999999</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>-1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -776,20 +793,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A9C19B-CF1F-4CD7-A681-68B1EF1D6A4B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -797,10 +813,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -810,14 +823,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A01DD5F-70EC-40D9-ABEF-A571E5D59CE8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0DE891-59B5-4876-B69A-D646B6C3CFF2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>99999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854383EE-6F4D-41E7-ACC9-E8D80A8BE6E8}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noaha\Documents\GitHub\blimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AEBE40-9329-474A-A0DA-4C67C7A5E2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5612F0-1AA7-45DE-AD2B-8CB89F12307A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>Anchor</t>
   </si>
@@ -160,6 +160,117 @@
   </si>
   <si>
     <t>Mineralogy</t>
+  </si>
+  <si>
+    <t>ETH-01</t>
+  </si>
+  <si>
+    <t>ETH01</t>
+  </si>
+  <si>
+    <t>ETH1</t>
+  </si>
+  <si>
+    <t>ETH_01</t>
+  </si>
+  <si>
+    <t>ETH-02</t>
+  </si>
+  <si>
+    <t>ETH02</t>
+  </si>
+  <si>
+    <t>ETH2</t>
+  </si>
+  <si>
+    <t>ETH_02</t>
+  </si>
+  <si>
+    <t>ETH-03</t>
+  </si>
+  <si>
+    <t>ETH03</t>
+  </si>
+  <si>
+    <t>ETH3</t>
+  </si>
+  <si>
+    <t>ETH_03</t>
+  </si>
+  <si>
+    <t>ETH-04</t>
+  </si>
+  <si>
+    <t>ETH04</t>
+  </si>
+  <si>
+    <t>ETH4</t>
+  </si>
+  <si>
+    <t>ETH_04</t>
+  </si>
+  <si>
+    <t>IACA-C1</t>
+  </si>
+  <si>
+    <t>IAEA-C1</t>
+  </si>
+  <si>
+    <t>IAEAC1</t>
+  </si>
+  <si>
+    <t>IAEAC2</t>
+  </si>
+  <si>
+    <t>MERCK STD</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>Merck STD</t>
+  </si>
+  <si>
+    <t>Rodolo Dolomite</t>
+  </si>
+  <si>
+    <t>RODOLO</t>
+  </si>
+  <si>
+    <t>Rodolo</t>
+  </si>
+  <si>
+    <t>RODOLO DOLOMITE</t>
+  </si>
+  <si>
+    <t>Sansa Dolomite</t>
+  </si>
+  <si>
+    <t>SANSA</t>
+  </si>
+  <si>
+    <t>Sansa</t>
+  </si>
+  <si>
+    <t>SANSA DOLOMITE</t>
+  </si>
+  <si>
+    <t>TV-03</t>
+  </si>
+  <si>
+    <t>TV-04</t>
+  </si>
+  <si>
+    <t>EHT-01</t>
+  </si>
+  <si>
+    <t>EHT-02</t>
+  </si>
+  <si>
+    <t>EHT-03</t>
+  </si>
+  <si>
+    <t>EHT-04</t>
   </si>
 </sst>
 </file>
@@ -694,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313594B5-B9A1-4667-8855-C8BB6D6B9DD7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -823,10 +934,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A01DD5F-70EC-40D9-ABEF-A571E5D59CE8}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,6 +952,270 @@
       </c>
       <c r="B1" s="2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noaha\Documents\GitHub\blimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5612F0-1AA7-45DE-AD2B-8CB89F12307A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55909976-A5C7-4BDF-AA74-760583934ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
+    <workbookView xWindow="4212" yWindow="4212" windowWidth="14952" windowHeight="8712" firstSheet="3" activeTab="6" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>Anchor</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>EHT-04</t>
+  </si>
+  <si>
+    <t>SRM-88b</t>
+  </si>
+  <si>
+    <t>Dolomite</t>
   </si>
 </sst>
 </file>
@@ -936,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A01DD5F-70EC-40D9-ABEF-A571E5D59CE8}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B34"/>
     </sheetView>
   </sheetViews>
@@ -1257,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854383EE-6F4D-41E7-ACC9-E8D80A8BE6E8}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1277,6 +1283,14 @@
         <v>39</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/params.xlsx
+++ b/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noaha\Documents\GitHub\blimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55909976-A5C7-4BDF-AA74-760583934ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788A5EF0-9FB7-4395-9892-AC045C681486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="4212" windowWidth="14952" windowHeight="8712" firstSheet="3" activeTab="6" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="18900" windowHeight="11430" firstSheet="1" activeTab="6" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>Anchor</t>
   </si>
@@ -222,39 +222,21 @@
     <t>IAEAC2</t>
   </si>
   <si>
-    <t>MERCK STD</t>
-  </si>
-  <si>
     <t>Merck</t>
   </si>
   <si>
-    <t>Merck STD</t>
-  </si>
-  <si>
-    <t>Rodolo Dolomite</t>
-  </si>
-  <si>
     <t>RODOLO</t>
   </si>
   <si>
     <t>Rodolo</t>
   </si>
   <si>
-    <t>RODOLO DOLOMITE</t>
-  </si>
-  <si>
-    <t>Sansa Dolomite</t>
-  </si>
-  <si>
     <t>SANSA</t>
   </si>
   <si>
     <t>Sansa</t>
   </si>
   <si>
-    <t>SANSA DOLOMITE</t>
-  </si>
-  <si>
     <t>TV-03</t>
   </si>
   <si>
@@ -273,17 +255,38 @@
     <t>EHT-04</t>
   </si>
   <si>
-    <t>SRM-88b</t>
-  </si>
-  <si>
     <t>Dolomite</t>
+  </si>
+  <si>
+    <t>MERCK_STD</t>
+  </si>
+  <si>
+    <t>Merck_STD</t>
+  </si>
+  <si>
+    <t>Rodolo_Dolomite</t>
+  </si>
+  <si>
+    <t>RODOLO_DOLOMITE</t>
+  </si>
+  <si>
+    <t>Sansa_Dolomite</t>
+  </si>
+  <si>
+    <t>SANSA_DOLOMITE</t>
+  </si>
+  <si>
+    <t>Calcite</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +298,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,12 +335,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,13 +664,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -674,7 +692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -685,7 +703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -696,7 +714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -707,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -718,7 +736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -742,13 +760,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -759,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -770,7 +788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -781,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -792,12 +810,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -809,20 +827,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313594B5-B9A1-4667-8855-C8BB6D6B9DD7}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="67.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -832,8 +850,11 @@
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -843,9 +864,11 @@
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -855,9 +878,11 @@
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -867,9 +892,11 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -879,32 +906,45 @@
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -913,16 +953,16 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -940,19 +980,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A01DD5F-70EC-40D9-ABEF-A571E5D59CE8}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -960,7 +1000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -968,7 +1008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -976,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -984,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -992,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1000,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1008,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1016,7 +1056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1024,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1032,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1040,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1048,7 +1088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1056,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1064,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1072,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1080,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1088,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1096,7 +1136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1104,7 +1144,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1112,117 +1152,280 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1235,12 +1438,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+      <selection activeCell="A3" sqref="A3:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>99999</v>
       </c>
@@ -1257,41 +1460,113 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854383EE-6F4D-41E7-ACC9-E8D80A8BE6E8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noaha\Documents\GitHub\blimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788A5EF0-9FB7-4395-9892-AC045C681486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F4E153-A6DD-4E30-AC49-5173E5B680F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="18900" windowHeight="11430" firstSheet="1" activeTab="6" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
+    <workbookView xWindow="4956" yWindow="14172" windowWidth="15360" windowHeight="9516" firstSheet="1" activeTab="6" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchors" sheetId="1" r:id="rId1"/>
@@ -664,13 +664,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -692,7 +692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -714,7 +714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -736,7 +736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -760,13 +760,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -777,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -788,7 +788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -799,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -810,12 +810,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -833,14 +833,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="67.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="67.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -854,7 +854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -868,7 +868,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -910,7 +910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -938,7 +938,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="C8" s="1"/>
     </row>
@@ -956,13 +956,13 @@
       <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -986,13 +986,13 @@
       <selection activeCell="B36" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1264,167 +1264,167 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
     </row>
   </sheetData>
@@ -1441,9 +1441,9 @@
       <selection activeCell="A3" sqref="A3:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>99999</v>
       </c>
@@ -1467,33 +1467,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854383EE-6F4D-41E7-ACC9-E8D80A8BE6E8}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1501,7 +1495,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1509,7 +1503,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1517,7 +1511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1525,7 +1519,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1533,7 +1527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1541,7 +1535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1549,7 +1543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1557,7 +1551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>

--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noaha\Documents\GitHub\blimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F4E153-A6DD-4E30-AC49-5173E5B680F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20BA193-6EAB-4636-85BE-B97EB6613FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4956" yWindow="14172" windowWidth="15360" windowHeight="9516" firstSheet="1" activeTab="6" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchors" sheetId="1" r:id="rId1"/>
@@ -664,13 +664,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -692,7 +692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -714,7 +714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -736,7 +736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -760,13 +760,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -777,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -788,7 +788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -799,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -810,12 +810,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -833,14 +833,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="67.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="67.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -854,7 +854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -868,7 +868,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -910,7 +910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -938,7 +938,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="C8" s="1"/>
     </row>
@@ -956,13 +956,13 @@
       <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -982,17 +982,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A01DD5F-70EC-40D9-ABEF-A571E5D59CE8}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="A35:B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1264,167 +1264,167 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
     </row>
   </sheetData>
@@ -1441,9 +1441,9 @@
       <selection activeCell="A3" sqref="A3:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>99999</v>
       </c>
@@ -1469,17 +1469,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854383EE-6F4D-41E7-ACC9-E8D80A8BE6E8}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>

--- a/params.xlsx
+++ b/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noaha\Documents\GitHub\blimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20BA193-6EAB-4636-85BE-B97EB6613FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF2EFA1-23E2-4BE0-99FB-0444F4DBB401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="5" activeTab="6" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="207">
   <si>
     <t>Anchor</t>
   </si>
@@ -87,199 +87,580 @@
     <t>calc_a18O</t>
   </si>
   <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>long_term_SD</t>
+  </si>
+  <si>
+    <t>num_SD</t>
+  </si>
+  <si>
+    <t>bad_count_thresh</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Long term (i.e., &gt; several weeks) average external SD on d47 for all standards</t>
+  </si>
+  <si>
+    <t>How many SD from median d47 to start excluding cycles</t>
+  </si>
+  <si>
+    <t>How many remove cycles before entire analysis is removed</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Bernasconi et al. (2020)</t>
+  </si>
+  <si>
+    <t>balance_high</t>
+  </si>
+  <si>
+    <t>balance_low</t>
+  </si>
+  <si>
+    <t>Transducer pressure below which analysis is removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance above which analysis is removed </t>
+  </si>
+  <si>
+    <t>Balance below which analysis is removed</t>
+  </si>
+  <si>
+    <t>transducer_pressure_thresh</t>
+  </si>
+  <si>
+    <t>old_name</t>
+  </si>
+  <si>
+    <t>new_name</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Ex: 20200105 NTA determined that a leak on the CO block led to erroneous D47 values</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Mineralogy</t>
+  </si>
+  <si>
+    <t>ETH-01</t>
+  </si>
+  <si>
+    <t>ETH01</t>
+  </si>
+  <si>
+    <t>ETH1</t>
+  </si>
+  <si>
+    <t>ETH_01</t>
+  </si>
+  <si>
+    <t>ETH-02</t>
+  </si>
+  <si>
+    <t>ETH02</t>
+  </si>
+  <si>
+    <t>ETH2</t>
+  </si>
+  <si>
+    <t>ETH_02</t>
+  </si>
+  <si>
+    <t>ETH-03</t>
+  </si>
+  <si>
+    <t>ETH03</t>
+  </si>
+  <si>
+    <t>ETH3</t>
+  </si>
+  <si>
+    <t>ETH_03</t>
+  </si>
+  <si>
+    <t>ETH-04</t>
+  </si>
+  <si>
+    <t>ETH04</t>
+  </si>
+  <si>
+    <t>ETH4</t>
+  </si>
+  <si>
+    <t>ETH_04</t>
+  </si>
+  <si>
+    <t>IACA-C1</t>
+  </si>
+  <si>
+    <t>IAEA-C1</t>
+  </si>
+  <si>
+    <t>IAEAC1</t>
+  </si>
+  <si>
+    <t>IAEAC2</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>RODOLO</t>
+  </si>
+  <si>
+    <t>Rodolo</t>
+  </si>
+  <si>
+    <t>SANSA</t>
+  </si>
+  <si>
+    <t>Sansa</t>
+  </si>
+  <si>
+    <t>TV-03</t>
+  </si>
+  <si>
+    <t>TV-04</t>
+  </si>
+  <si>
+    <t>EHT-01</t>
+  </si>
+  <si>
+    <t>EHT-02</t>
+  </si>
+  <si>
+    <t>EHT-03</t>
+  </si>
+  <si>
+    <t>EHT-04</t>
+  </si>
+  <si>
+    <t>Dolomite</t>
+  </si>
+  <si>
+    <t>MERCK_STD</t>
+  </si>
+  <si>
+    <t>Merck_STD</t>
+  </si>
+  <si>
+    <t>Rodolo_Dolomite</t>
+  </si>
+  <si>
+    <t>RODOLO_DOLOMITE</t>
+  </si>
+  <si>
+    <t>Sansa_Dolomite</t>
+  </si>
+  <si>
+    <t>SANSA_DOLOMITE</t>
+  </si>
+  <si>
+    <t>Calcite</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Horita (2014)</t>
+  </si>
+  <si>
+    <t>Kim et al. (2007)</t>
+  </si>
+  <si>
     <t>dolo_a18O</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Kim and O'Neil (2007)</t>
-  </si>
-  <si>
-    <t>Rosenbaum and Sheppard (1986)</t>
-  </si>
-  <si>
-    <t>long_term_SD</t>
-  </si>
-  <si>
-    <t>num_SD</t>
-  </si>
-  <si>
-    <t>bad_count_thresh</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Long term (i.e., &gt; several weeks) average external SD on d47 for all standards</t>
-  </si>
-  <si>
-    <t>How many SD from median d47 to start excluding cycles</t>
-  </si>
-  <si>
-    <t>How many remove cycles before entire analysis is removed</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Bernasconi et al. (2020)</t>
-  </si>
-  <si>
-    <t>balance_high</t>
-  </si>
-  <si>
-    <t>balance_low</t>
-  </si>
-  <si>
-    <t>Transducer pressure below which analysis is removed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance above which analysis is removed </t>
-  </si>
-  <si>
-    <t>Balance below which analysis is removed</t>
-  </si>
-  <si>
-    <t>transducer_pressure_thresh</t>
-  </si>
-  <si>
-    <t>old_name</t>
-  </si>
-  <si>
-    <t>new_name</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Ex: 20200105 NTA determined that a leak on the CO block led to erroneous D47 values</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Mineralogy</t>
-  </si>
-  <si>
-    <t>ETH-01</t>
-  </si>
-  <si>
-    <t>ETH01</t>
-  </si>
-  <si>
-    <t>ETH1</t>
-  </si>
-  <si>
-    <t>ETH_01</t>
-  </si>
-  <si>
-    <t>ETH-02</t>
-  </si>
-  <si>
-    <t>ETH02</t>
-  </si>
-  <si>
-    <t>ETH2</t>
-  </si>
-  <si>
-    <t>ETH_02</t>
-  </si>
-  <si>
-    <t>ETH-03</t>
-  </si>
-  <si>
-    <t>ETH03</t>
-  </si>
-  <si>
-    <t>ETH3</t>
-  </si>
-  <si>
-    <t>ETH_03</t>
-  </si>
-  <si>
-    <t>ETH-04</t>
-  </si>
-  <si>
-    <t>ETH04</t>
-  </si>
-  <si>
-    <t>ETH4</t>
-  </si>
-  <si>
-    <t>ETH_04</t>
-  </si>
-  <si>
-    <t>IACA-C1</t>
-  </si>
-  <si>
-    <t>IAEA-C1</t>
-  </si>
-  <si>
-    <t>IAEAC1</t>
-  </si>
-  <si>
-    <t>IAEAC2</t>
-  </si>
-  <si>
-    <t>Merck</t>
-  </si>
-  <si>
-    <t>RODOLO</t>
-  </si>
-  <si>
-    <t>Rodolo</t>
-  </si>
-  <si>
-    <t>SANSA</t>
-  </si>
-  <si>
-    <t>Sansa</t>
-  </si>
-  <si>
-    <t>TV-03</t>
-  </si>
-  <si>
-    <t>TV-04</t>
-  </si>
-  <si>
-    <t>EHT-01</t>
-  </si>
-  <si>
-    <t>EHT-02</t>
-  </si>
-  <si>
-    <t>EHT-03</t>
-  </si>
-  <si>
-    <t>EHT-04</t>
-  </si>
-  <si>
-    <t>Dolomite</t>
-  </si>
-  <si>
-    <t>MERCK_STD</t>
-  </si>
-  <si>
-    <t>Merck_STD</t>
-  </si>
-  <si>
-    <t>Rodolo_Dolomite</t>
-  </si>
-  <si>
-    <t>RODOLO_DOLOMITE</t>
-  </si>
-  <si>
-    <t>Sansa_Dolomite</t>
-  </si>
-  <si>
-    <t>SANSA_DOLOMITE</t>
-  </si>
-  <si>
-    <t>Calcite</t>
-  </si>
-  <si>
-    <t>Default</t>
+    <t>SIGAL</t>
+  </si>
+  <si>
+    <t>BONI_IPGP_100_A3</t>
+  </si>
+  <si>
+    <t>BONI_IPGP_250</t>
+  </si>
+  <si>
+    <t>BONI_IPGP_350</t>
+  </si>
+  <si>
+    <t>BONI_IPGP_80_1</t>
+  </si>
+  <si>
+    <t>ETH-1-1100-SAM</t>
+  </si>
+  <si>
+    <t>ETH-2-1100-SAM</t>
+  </si>
+  <si>
+    <t>JOHN_HT_25C</t>
+  </si>
+  <si>
+    <t>JOHN_HT_80C</t>
+  </si>
+  <si>
+    <t>Aragonite</t>
+  </si>
+  <si>
+    <t>KELE_AQUA_BORRA</t>
+  </si>
+  <si>
+    <t>KELE_BUK_4</t>
+  </si>
+  <si>
+    <t>KELE_CANARIAN</t>
+  </si>
+  <si>
+    <t>KELE_GAWATUPA</t>
+  </si>
+  <si>
+    <t>KELE_IGAL</t>
+  </si>
+  <si>
+    <t>KELE_LAPIGNA</t>
+  </si>
+  <si>
+    <t>KELE_NG_2</t>
+  </si>
+  <si>
+    <t>KELE_P5_SUMMER</t>
+  </si>
+  <si>
+    <t>KELE_P5_WINTER</t>
+  </si>
+  <si>
+    <t>KELE_SARTEANO</t>
+  </si>
+  <si>
+    <t>KELE_SZAL</t>
+  </si>
+  <si>
+    <t>KELE_TURA</t>
+  </si>
+  <si>
+    <t>LF2012-9_7-A</t>
+  </si>
+  <si>
+    <t>LF2012-D1-A</t>
+  </si>
+  <si>
+    <t>LJ2010-12A-Z1A</t>
+  </si>
+  <si>
+    <t>LJ2010-12A-Z2A</t>
+  </si>
+  <si>
+    <t>LJ2010-5B-A</t>
+  </si>
+  <si>
+    <t>LV26NOV10-2A</t>
+  </si>
+  <si>
+    <t>UWCP14_20C_9</t>
+  </si>
+  <si>
+    <t>UWCP14_20C_CA_11</t>
+  </si>
+  <si>
+    <t>UWCP14_21C_1</t>
+  </si>
+  <si>
+    <t>UWCP14_4C_3</t>
+  </si>
+  <si>
+    <t>UWCP14_4C_4</t>
+  </si>
+  <si>
+    <t>UWCP14_50C_2</t>
+  </si>
+  <si>
+    <t>UWCP14_50C_7</t>
+  </si>
+  <si>
+    <t>UWCP14_50C_CA_11</t>
+  </si>
+  <si>
+    <t>UWCP14_60C_2</t>
+  </si>
+  <si>
+    <t>UWCP14_70C_4</t>
+  </si>
+  <si>
+    <t>UWCP14_70C_CA_4</t>
+  </si>
+  <si>
+    <t>UWCP14_80C_2</t>
+  </si>
+  <si>
+    <t>UWCP14_8C_2</t>
+  </si>
+  <si>
+    <t>UWCP14_8C_6</t>
+  </si>
+  <si>
+    <t>UWCP14_8C_CA_4</t>
+  </si>
+  <si>
+    <t>14_DOL_2_4WK_140C</t>
+  </si>
+  <si>
+    <t>20_DOL_4WK_70C</t>
+  </si>
+  <si>
+    <t>85_DOL_12WK_220C</t>
+  </si>
+  <si>
+    <t>86_DOL_12WK_220C</t>
+  </si>
+  <si>
+    <t>BONI_150_A4</t>
+  </si>
+  <si>
+    <t>BONI_200_A1</t>
+  </si>
+  <si>
+    <t>BONI_300_A2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SRM-88b</t>
+  </si>
+  <si>
+    <t>All ratios are crazy, d47 is -60</t>
+  </si>
+  <si>
+    <t>All ratios are crazy, d47 is -50</t>
+  </si>
+  <si>
+    <t>All ratios are crazy, d47 is -51</t>
+  </si>
+  <si>
+    <t>D47 seemed far off; d49 is &gt; 600</t>
+  </si>
+  <si>
+    <t>D47 is way off, but can't find any other weirdness. Provisionally disabled.</t>
+  </si>
+  <si>
+    <t>D47 is way off; d48 is -23.99 vs all others around -24.6</t>
+  </si>
+  <si>
+    <t>All ratios are way off</t>
+  </si>
+  <si>
+    <t>Bison enamel irrelevant</t>
+  </si>
+  <si>
+    <t>BONI_300 removed by peirce's criterion</t>
+  </si>
+  <si>
+    <t>First few reps after vent; D47, D48, D49 all looks bad</t>
+  </si>
+  <si>
+    <t>Poor D47, D48, D48</t>
+  </si>
+  <si>
+    <t>D47 way off</t>
+  </si>
+  <si>
+    <t>D49 crazy</t>
+  </si>
+  <si>
+    <t>negative D47</t>
+  </si>
+  <si>
+    <t>provisional removal -- D47 bad, but nothing else noticably wrong</t>
+  </si>
+  <si>
+    <t>first in batch, D47 far off</t>
+  </si>
+  <si>
+    <t>THUTHY negative D47 value…</t>
+  </si>
+  <si>
+    <t>D47 way high</t>
+  </si>
+  <si>
+    <t>D47 &gt; 3SD on anchor</t>
+  </si>
+  <si>
+    <t>D47 &gt; 3SD on anchor (2nd iteration)</t>
+  </si>
+  <si>
+    <t>D47 &gt; 3SD on anchor (3rd iteration)</t>
+  </si>
+  <si>
+    <t>D47 &gt; 3SD on anchor (4th iteration)</t>
+  </si>
+  <si>
+    <t>FAST_HAGA</t>
+  </si>
+  <si>
+    <t>FAST-HAGA</t>
+  </si>
+  <si>
+    <t>IPGP_Carrara</t>
+  </si>
+  <si>
+    <t>IPGP-Carrara</t>
+  </si>
+  <si>
+    <t>IPGP-CARRARA</t>
+  </si>
+  <si>
+    <t>IPGP_TAR</t>
+  </si>
+  <si>
+    <t>IPGP-TAR</t>
+  </si>
+  <si>
+    <t>This was labelled as ETH-3, but looks like ETH-1 in D47/d47 space</t>
+  </si>
+  <si>
+    <t>This was labelled as ETH-4, but looks like ETH-1 in D47/d47 space</t>
+  </si>
+  <si>
+    <t>Off by one error in batch data file 20211004</t>
+  </si>
+  <si>
+    <t>PM-B</t>
+  </si>
+  <si>
+    <t>GCAZ-01b</t>
+  </si>
+  <si>
+    <t>BB-CC-FF</t>
+  </si>
+  <si>
+    <t>GS-B</t>
+  </si>
+  <si>
+    <t>CROCRO-A</t>
+  </si>
+  <si>
+    <t>BE-B</t>
+  </si>
+  <si>
+    <t>THUTHY-A</t>
+  </si>
+  <si>
+    <t>VARNIL-A</t>
+  </si>
+  <si>
+    <t>Orig. labelled as ETH-4 -- I think I misweighed all the ETH-4 in this batch</t>
+  </si>
+  <si>
+    <t>ADK-7</t>
+  </si>
+  <si>
+    <t>ARAGONITE-1-HT</t>
+  </si>
+  <si>
+    <t>ARAGONITE-2-HT</t>
+  </si>
+  <si>
+    <t>ARC64</t>
+  </si>
+  <si>
+    <t>Arc64</t>
+  </si>
+  <si>
+    <t>Arc65</t>
+  </si>
+  <si>
+    <t>CALCITE-1-HT</t>
+  </si>
+  <si>
+    <t>CALCITE-2-HT</t>
+  </si>
+  <si>
+    <t>CALCITE-3-HT</t>
+  </si>
+  <si>
+    <t>CALCITE-4-HT</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>DOLOMITE 88-1 B HT</t>
+  </si>
+  <si>
+    <t>DOLOMITE-1-HT</t>
+  </si>
+  <si>
+    <t>DOLOMITE-88-1bHT</t>
+  </si>
+  <si>
+    <t>Depleted_Carb</t>
+  </si>
+  <si>
+    <t>GS-A</t>
+  </si>
+  <si>
+    <t>GS-C</t>
+  </si>
+  <si>
+    <t>Hagit_Carrara</t>
+  </si>
+  <si>
+    <t>IPGP-ADK-7</t>
+  </si>
+  <si>
+    <t>IPGP-ARC-64</t>
+  </si>
+  <si>
+    <t>IPGP-ARC-65</t>
+  </si>
+  <si>
+    <t>LF4-18R2</t>
+  </si>
+  <si>
+    <t>LF4-18R3</t>
+  </si>
+  <si>
+    <t>LF4-24R3</t>
+  </si>
+  <si>
+    <t>LF4-25R1</t>
+  </si>
+  <si>
+    <t>LFA_1.0R3</t>
+  </si>
+  <si>
+    <t>LIV-DC</t>
+  </si>
+  <si>
+    <t>MCZ-198076-A</t>
+  </si>
+  <si>
+    <t>MCZ-198078-B</t>
+  </si>
+  <si>
+    <t>MCZ-198081-A</t>
+  </si>
+  <si>
+    <t>MCZ-198082-A</t>
+  </si>
+  <si>
+    <t>NBS-19</t>
+  </si>
+  <si>
+    <t>THUTHY-B</t>
+  </si>
+  <si>
+    <t>UNGCON-10</t>
   </si>
 </sst>
 </file>
@@ -666,8 +1047,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -678,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -689,7 +1070,7 @@
         <v>0.20519999999999999</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -700,7 +1081,7 @@
         <v>0.20849999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -711,7 +1092,7 @@
         <v>0.61319999999999997</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -722,7 +1103,7 @@
         <v>0.45050000000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -733,7 +1114,7 @@
         <v>0.64090000000000003</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -744,7 +1125,7 @@
         <v>0.51349999999999996</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -754,19 +1135,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9AC635-060F-434C-A890-9A00DE8991DC}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -774,10 +1155,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -785,37 +1166,55 @@
         <v>1.00871</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.00871</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.0060286166694949</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0060286166694949</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.00926</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>1.009091</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.009091</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -829,15 +1228,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313594B5-B9A1-4667-8855-C8BB6D6B9DD7}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="67.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,21 +1247,21 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>0.10299999999999999</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>0.10299999999999999</v>
@@ -870,13 +1269,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -884,13 +1283,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -898,13 +1297,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>15</v>
@@ -912,13 +1311,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -926,13 +1325,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <v>-2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
         <v>-1</v>
@@ -950,16 +1349,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A9C19B-CF1F-4CD7-A681-68B1EF1D6A4B}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A2:C4"/>
+      <selection sqref="A1:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -970,39 +1369,568 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>14379</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>13647</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>14374</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>15128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>15129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>15131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>15132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>15133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>15135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>15136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>15137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>15143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>15145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>15146</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>15147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15148</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>15149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>15150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>15151</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>15152</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>15153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>15154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>15155</v>
+      </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>15156</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>15157</v>
+      </c>
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>15158</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>15159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>15160</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>15161</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>15162</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>15163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>15164</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>15165</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>15166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>15167</v>
+      </c>
+      <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>15168</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>15169</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>15171</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>15182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>15184</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A01DD5F-70EC-40D9-ABEF-A571E5D59CE8}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1010,7 +1938,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1018,7 +1946,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1026,7 +1954,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1034,7 +1962,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1042,7 +1970,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1050,7 +1978,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1058,7 +1986,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1066,7 +1994,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1074,7 +2002,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1082,7 +2010,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1090,7 +2018,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1098,7 +2026,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1106,7 +2034,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1114,7 +2042,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1122,7 +2050,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1130,23 +2058,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1154,7 +2082,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1162,7 +2090,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1170,7 +2098,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1178,63 +2106,63 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -1242,7 +2170,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1250,7 +2178,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -1258,24 +2186,43 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
@@ -1327,105 +2274,6 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1435,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0DE891-59B5-4876-B69A-D646B6C3CFF2}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,7 +2296,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1456,7 +2304,279 @@
         <v>99999</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>14378</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>13647</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>13646</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>13386</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>13469</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>13436</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>13620</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>14376</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>13558</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>13559</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13560</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13645</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14685</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14686</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14687</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14688</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>14770</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>15070</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>14705</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>15127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>15177</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>15197</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>15146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>15237</v>
+      </c>
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>15424</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>15299</v>
+      </c>
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>15526</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>15445</v>
+      </c>
+      <c r="B31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>15217</v>
+      </c>
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>15163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>15446</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>15486</v>
+      </c>
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>15238</v>
+      </c>
+      <c r="B36" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1467,24 +2587,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854383EE-6F4D-41E7-ACC9-E8D80A8BE6E8}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1492,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1500,7 +2620,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1508,7 +2628,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1516,15 +2636,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1532,23 +2652,23 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1556,7 +2676,730 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/params.xlsx
+++ b/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noaha\Documents\GitHub\blimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20BA193-6EAB-4636-85BE-B97EB6613FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F20FB09-5BCD-4639-8545-1B71CCD47A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="15120" windowHeight="9144" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchors" sheetId="1" r:id="rId1"/>
@@ -93,12 +93,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>Kim and O'Neil (2007)</t>
-  </si>
-  <si>
-    <t>Rosenbaum and Sheppard (1986)</t>
-  </si>
-  <si>
     <t>long_term_SD</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>Bernasconi et al. (2020)</t>
-  </si>
-  <si>
     <t>balance_high</t>
   </si>
   <si>
@@ -280,6 +271,15 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>Kim et al. (2007)</t>
+  </si>
+  <si>
+    <t>Horita (2014)</t>
+  </si>
+  <si>
+    <t>Bernasconi et al. (2021)</t>
   </si>
 </sst>
 </file>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851CBD33-92C1-489B-80B7-086839040FD4}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,7 +689,7 @@
         <v>0.20519999999999999</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>0.20849999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -711,7 +711,7 @@
         <v>0.61319999999999997</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -722,7 +722,7 @@
         <v>0.45050000000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -733,7 +733,7 @@
         <v>0.64090000000000003</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>0.51349999999999996</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +757,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,29 +785,29 @@
         <v>1.00871</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>1.00926</v>
+        <v>1.0060286166694949</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>1.009091</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -848,21 +848,21 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>0.10299999999999999</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>0.10299999999999999</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -884,13 +884,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -898,13 +898,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>15</v>
@@ -912,13 +912,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -926,13 +926,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <v>-2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
         <v>-1</v>
@@ -970,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A01DD5F-70EC-40D9-ABEF-A571E5D59CE8}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -994,15 +994,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1130,23 +1130,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1178,63 +1178,63 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1448,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1456,7 +1456,7 @@
         <v>99999</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1481,10 +1481,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1492,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1500,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1508,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1516,15 +1516,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1532,23 +1532,23 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1556,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/params.xlsx
+++ b/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noaha\Documents\GitHub\blimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F20FB09-5BCD-4639-8545-1B71CCD47A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FF2B56-8F58-43F0-92F0-38B5CC85D03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="15120" windowHeight="9144" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
+    <workbookView xWindow="384" yWindow="324" windowWidth="18900" windowHeight="12636" activeTab="1" xr2:uid="{449AC5F2-A593-4BA4-BD07-2CD1BA0C4AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>Anchor</t>
   </si>
@@ -276,10 +276,13 @@
     <t>Kim et al. (2007)</t>
   </si>
   <si>
-    <t>Horita (2014)</t>
-  </si>
-  <si>
     <t>Bernasconi et al. (2021)</t>
+  </si>
+  <si>
+    <t>First rep, D47 terrible</t>
+  </si>
+  <si>
+    <t>Rosenbaum and Sheppard (1986)</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851CBD33-92C1-489B-80B7-086839040FD4}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -689,7 +692,7 @@
         <v>0.20519999999999999</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -700,7 +703,7 @@
         <v>0.20849999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -711,7 +714,7 @@
         <v>0.61319999999999997</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -722,7 +725,7 @@
         <v>0.45050000000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -733,7 +736,7 @@
         <v>0.64090000000000003</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -744,7 +747,7 @@
         <v>0.51349999999999996</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9AC635-060F-434C-A890-9A00DE8991DC}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -793,10 +796,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0060286166694949</v>
+        <v>1.0099260000000001</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1435,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0DE891-59B5-4876-B69A-D646B6C3CFF2}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,6 +1460,14 @@
       </c>
       <c r="B2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>17401</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
